--- a/docs/Contributions.xlsx
+++ b/docs/Contributions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ja\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicenur/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B956FFD7-CBD6-48B0-86BB-04ACACC4A597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC403B5-C346-DC49-81EA-51FA40E7C0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A97094ED-2904-4473-8A39-04A583B28114}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{A97094ED-2904-4473-8A39-04A583B28114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,20 +449,19 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-    <col min="10" max="11" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="9" max="11" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,52 +478,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
         <f>SUM(C3:C7)</f>
+        <v>100</v>
+      </c>
+      <c r="D8">
         <v>100</v>
       </c>
     </row>
